--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\fuels\BS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\Web App update\corrected input files\BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62F6AA2-D248-42BA-A1C4-EBE4104E5295}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D516E0A0-AE3F-46FD-8621-5BC74D53A12B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,15 +972,6 @@
     <t>http://pib.nic.in/newsite/PrintRelease.aspx?relid=78829</t>
   </si>
   <si>
-    <t>Wind Subsidy</t>
-  </si>
-  <si>
-    <t>Ministry of New and Renewable energy</t>
-  </si>
-  <si>
-    <t>Generation based incentive for Grid Connected Wind Power Projects</t>
-  </si>
-  <si>
     <t>hard coal ($/MW)</t>
   </si>
   <si>
@@ -1148,28 +1139,37 @@
     <t>Domestic LPG Subsidy</t>
   </si>
   <si>
-    <t>https://mnre.gov.in/sites/default/files/uploads/gbi-scheme.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">There are two fuels in India that get direct consumer subsidy i.e.LPG Natural Gas (which are accounted in this variable). </t>
   </si>
   <si>
     <t xml:space="preserve">Since India has a capacity target for renewables, the subsidies by way of state-level feed-in-tariffs or Viability Gap funding are not accounted for, </t>
   </si>
   <si>
-    <t>Only the direct central subsidy i.e. GBI for Wind Power is included.</t>
-  </si>
-  <si>
-    <t>The GBI is applied only for 5 years, as wind technology is mature, and the government is also moving</t>
-  </si>
-  <si>
-    <t>towards competitive auctions for wind, like solar.</t>
-  </si>
-  <si>
     <t>Domestic LPG is considered as it constitutes most (~90%) of the consumption in India.</t>
   </si>
   <si>
     <t>but instead the phased capacity construction over the years is force fed into the model in the BAU Policy Mandated Capacity Construction variable of the Electricity sector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Until 2017, a generation-based incentive for wind was available. It is discontinued now as wind technology </t>
+  </si>
+  <si>
+    <t>is mature, and the government is also moving towards competitive auctions for wind, like solar.</t>
+  </si>
+  <si>
+    <t>Discontinuation of Wind Generation Incentive</t>
+  </si>
+  <si>
+    <t>https://www.iisd.org/sites/default/files/publications/india-energy-transition-2020.pdf</t>
+  </si>
+  <si>
+    <t>Annex 3, Page 60</t>
+  </si>
+  <si>
+    <t>CEEW-IISD</t>
+  </si>
+  <si>
+    <t>Mapping India's Energy Subsidies: 2020</t>
   </si>
 </sst>
 </file>
@@ -1914,23 +1914,17 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1938,10 +1932,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2491,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,35 +2533,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2571,7 +2573,7 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2592,23 +2594,23 @@
     </row>
     <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2634,12 +2636,12 @@
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2650,12 +2652,12 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,39 +2667,35 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>244</v>
-      </c>
-    </row>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B21" r:id="rId1" xr:uid="{A46A4CF2-7EA3-43CC-B312-AD780F7566A0}"/>
     <hyperlink ref="D14" r:id="rId2" xr:uid="{D44719C6-4544-4A35-881B-AF022A460CFE}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{F67DD062-D71B-4D66-B84B-7E8C9F504B42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -2835,7 +2833,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -2942,7 +2940,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -3049,7 +3047,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -3156,7 +3154,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -3263,7 +3261,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -3370,7 +3368,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -3477,7 +3475,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -3584,7 +3582,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
@@ -3691,7 +3689,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B10" s="7">
         <v>0</v>
@@ -3798,7 +3796,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B11" s="7">
         <v>0</v>
@@ -3905,7 +3903,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
@@ -4012,7 +4010,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B13" s="7">
         <v>0</v>
@@ -4119,7 +4117,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
@@ -4226,7 +4224,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
@@ -4333,7 +4331,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
@@ -4440,7 +4438,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B17" s="7">
         <v>0</v>
@@ -5137,7 +5135,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>4</v>
@@ -5221,12 +5219,12 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E22" s="70" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E23" s="70" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
@@ -5271,7 +5269,7 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="E1" s="81" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F1" s="81"/>
       <c r="G1" s="81"/>
@@ -5330,7 +5328,7 @@
         <v>173.41</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E4" s="72"/>
       <c r="F4" s="71"/>
@@ -5362,7 +5360,7 @@
         <v>173.41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E6" s="72"/>
       <c r="F6" s="71"/>
@@ -5379,7 +5377,7 @@
         <v>2.7251522990280711E-4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E7" s="82" t="s">
         <v>9</v>
@@ -5420,7 +5418,7 @@
         <v>77</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="71"/>
@@ -5435,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G10" s="86"/>
       <c r="H10" s="87"/>
@@ -5451,22 +5449,22 @@
       <c r="C11" s="7"/>
       <c r="E11" s="84"/>
       <c r="F11" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="J11" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="K11" s="73" t="s">
         <v>221</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="I11" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="J11" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="K11" s="73" t="s">
-        <v>224</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -5490,7 +5488,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="E12" s="74" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F12" s="75">
         <v>2.4500000000000002</v>
@@ -5534,7 +5532,7 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="E13" s="74" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F13" s="75">
         <v>1.65</v>
@@ -5578,7 +5576,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="E14" s="74" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F14" s="75">
         <v>0.82</v>
@@ -5622,7 +5620,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="E15" s="74" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F15" s="75">
         <v>0.82</v>
@@ -5666,7 +5664,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="E16" s="74" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F16" s="75">
         <v>0.82</v>
@@ -5710,7 +5708,7 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="E17" s="74" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F17" s="75">
         <v>0.82</v>
@@ -5798,7 +5796,7 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="E19" s="74" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F19" s="75">
         <v>0.82</v>
@@ -6065,7 +6063,7 @@
         <v>89</v>
       </c>
       <c r="F25" s="75" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G25" s="75">
         <v>13.47</v>
@@ -6075,7 +6073,7 @@
         <v>13.47</v>
       </c>
       <c r="I25" s="75" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J25" s="75">
         <v>150.82</v>
@@ -6109,7 +6107,7 @@
         <v>173</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G26" s="75">
         <v>11.39</v>
@@ -6119,7 +6117,7 @@
         <v>11.39</v>
       </c>
       <c r="I26" s="75" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J26" s="75">
         <v>108.78</v>
@@ -6150,10 +6148,10 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="E27" s="74" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F27" s="75" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G27" s="75">
         <v>10.34</v>
@@ -6163,7 +6161,7 @@
         <v>10.34</v>
       </c>
       <c r="I27" s="75" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J27" s="75">
         <v>173.41</v>
@@ -6194,14 +6192,14 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="E28" s="76" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F28" s="76"/>
       <c r="G28" s="76"/>
       <c r="H28" s="77"/>
       <c r="I28" s="77"/>
       <c r="J28" s="77" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K28" s="77"/>
       <c r="L28" s="7"/>
@@ -6226,7 +6224,7 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="E29" s="78" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F29" s="78"/>
       <c r="G29" s="78"/>
@@ -8674,19 +8672,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="88">
+      <c r="A3" s="94">
         <v>1</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="31" t="s">
         <v>120</v>
       </c>
@@ -8704,7 +8702,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="34" t="s">
         <v>121</v>
       </c>
@@ -8722,7 +8720,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="34" t="s">
         <v>123</v>
       </c>
@@ -8740,7 +8738,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="34" t="s">
         <v>125</v>
       </c>
@@ -8758,7 +8756,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="34" t="s">
         <v>126</v>
       </c>
@@ -8776,7 +8774,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="34" t="s">
         <v>127</v>
       </c>
@@ -8794,7 +8792,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="34" t="s">
         <v>128</v>
       </c>
@@ -8812,7 +8810,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="34" t="s">
         <v>129</v>
       </c>
@@ -8830,7 +8828,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="34" t="s">
         <v>130</v>
       </c>
@@ -8848,7 +8846,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="34" t="s">
         <v>131</v>
       </c>
@@ -8866,7 +8864,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="34" t="s">
         <v>132</v>
       </c>
@@ -8884,7 +8882,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="34" t="s">
         <v>133</v>
       </c>
@@ -8902,7 +8900,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="34" t="s">
         <v>134</v>
       </c>
@@ -8920,7 +8918,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="34" t="s">
         <v>135</v>
       </c>
@@ -8938,7 +8936,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="34" t="s">
         <v>136</v>
       </c>
@@ -8956,7 +8954,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="34" t="s">
         <v>137</v>
       </c>
@@ -8974,7 +8972,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="34" t="s">
         <v>138</v>
       </c>
@@ -8992,7 +8990,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="34" t="s">
         <v>139</v>
       </c>
@@ -9010,7 +9008,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="34" t="s">
         <v>140</v>
       </c>
@@ -9028,7 +9026,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="34" t="s">
         <v>141</v>
       </c>
@@ -9046,19 +9044,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="93">
+      <c r="A24" s="88">
         <v>2</v>
       </c>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="34" t="s">
         <v>143</v>
       </c>
@@ -9076,7 +9074,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="34" t="s">
         <v>144</v>
       </c>
@@ -9094,19 +9092,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="93">
+      <c r="A27" s="88">
         <v>3</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
     </row>
     <row r="28" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="34" t="s">
         <v>146</v>
       </c>
@@ -9124,19 +9122,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="93">
+      <c r="A29" s="88">
         <v>4</v>
       </c>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="34" t="s">
         <v>148</v>
       </c>
@@ -9202,19 +9200,19 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="88">
+      <c r="A35" s="94">
         <v>1</v>
       </c>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
     </row>
     <row r="36" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="31" t="s">
         <v>151</v>
       </c>
@@ -9232,7 +9230,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="34" t="s">
         <v>121</v>
       </c>
@@ -9250,7 +9248,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="89"/>
+      <c r="A38" s="95"/>
       <c r="B38" s="34" t="s">
         <v>152</v>
       </c>
@@ -9268,7 +9266,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="89"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="34" t="s">
         <v>125</v>
       </c>
@@ -9286,7 +9284,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="89"/>
+      <c r="A40" s="95"/>
       <c r="B40" s="34" t="s">
         <v>153</v>
       </c>
@@ -9304,7 +9302,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
+      <c r="A41" s="95"/>
       <c r="B41" s="34" t="s">
         <v>127</v>
       </c>
@@ -9322,7 +9320,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="34" t="s">
         <v>128</v>
       </c>
@@ -9340,7 +9338,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="34" t="s">
         <v>129</v>
       </c>
@@ -9358,7 +9356,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="89"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="34" t="s">
         <v>154</v>
       </c>
@@ -9376,7 +9374,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="89"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="34" t="s">
         <v>131</v>
       </c>
@@ -9394,7 +9392,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="89"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="34" t="s">
         <v>132</v>
       </c>
@@ -9412,7 +9410,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="89"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -9430,7 +9428,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="89"/>
+      <c r="A48" s="95"/>
       <c r="B48" s="34" t="s">
         <v>134</v>
       </c>
@@ -9448,7 +9446,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="34" t="s">
         <v>135</v>
       </c>
@@ -9466,7 +9464,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
+      <c r="A50" s="95"/>
       <c r="B50" s="34" t="s">
         <v>136</v>
       </c>
@@ -9484,7 +9482,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="89"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="34" t="s">
         <v>137</v>
       </c>
@@ -9502,7 +9500,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A52" s="89"/>
+      <c r="A52" s="95"/>
       <c r="B52" s="34" t="s">
         <v>138</v>
       </c>
@@ -9520,7 +9518,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="89"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="34" t="s">
         <v>155</v>
       </c>
@@ -9538,7 +9536,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="89"/>
+      <c r="A54" s="95"/>
       <c r="B54" s="34" t="s">
         <v>140</v>
       </c>
@@ -9556,7 +9554,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="90"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="34" t="s">
         <v>141</v>
       </c>
@@ -9574,19 +9572,19 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="93">
+      <c r="A56" s="88">
         <v>2</v>
       </c>
-      <c r="B56" s="94" t="s">
+      <c r="B56" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="95"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="89"/>
+      <c r="A57" s="95"/>
       <c r="B57" s="34" t="s">
         <v>143</v>
       </c>
@@ -9604,7 +9602,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
+      <c r="A58" s="89"/>
       <c r="B58" s="34" t="s">
         <v>144</v>
       </c>
@@ -9622,19 +9620,19 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="93">
+      <c r="A59" s="88">
         <v>3</v>
       </c>
-      <c r="B59" s="96" t="s">
+      <c r="B59" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="97"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
     </row>
     <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="90"/>
+      <c r="A60" s="89"/>
       <c r="B60" s="34" t="s">
         <v>146</v>
       </c>
@@ -9652,19 +9650,19 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="93">
+      <c r="A61" s="88">
         <v>4</v>
       </c>
-      <c r="B61" s="94" t="s">
+      <c r="B61" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
-      <c r="E61" s="95"/>
-      <c r="F61" s="95"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="90"/>
+      <c r="A62" s="89"/>
       <c r="B62" s="34" t="s">
         <v>148</v>
       </c>
@@ -9706,6 +9704,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="A61:A62"/>
@@ -9716,12 +9720,6 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="B56:F56"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -12822,7 +12820,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -12948,7 +12946,7 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -13074,7 +13072,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B20" s="9">
         <f>LPG!B9</f>
@@ -13215,7 +13213,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -13341,7 +13339,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -13483,7 +13481,7 @@
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14113,24 +14111,19 @@
         <v>31</v>
       </c>
       <c r="B6" s="13">
-        <f>Electricity!B7</f>
-        <v>9.1290852656563803</v>
+        <v>0</v>
       </c>
       <c r="C6" s="13">
-        <f>Electricity!C7</f>
-        <v>9.1290852656563803</v>
+        <v>0</v>
       </c>
       <c r="D6" s="13">
-        <f>Electricity!D7</f>
-        <v>9.1290852656563803</v>
+        <v>0</v>
       </c>
       <c r="E6" s="13">
-        <f>Electricity!E7</f>
-        <v>9.1290852656563803</v>
+        <v>0</v>
       </c>
       <c r="F6" s="13">
-        <f>Electricity!F7</f>
-        <v>9.1290852656563803</v>
+        <v>0</v>
       </c>
       <c r="G6" s="13">
         <f>Electricity!G7</f>
@@ -15235,7 +15228,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
@@ -15358,7 +15351,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
@@ -15481,7 +15474,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B17" s="7">
         <v>0</v>
